--- a/src/cab/perm/falcon.lbs.query.xlsx
+++ b/src/cab/perm/falcon.lbs.query.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/role/ADMIN.SUPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B5ECF-70AD-004E-B6E5-FD1CFACACDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69618E-3330-F247-8FC9-4751B4A65462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>77452bde-b3c1-4959-ab41-ef15cedd13f6</t>
   </si>
   <si>
-    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
-  </si>
-  <si>
     <t>ac8d755e-fbea-45f4-a476-8d9eb12a1032</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>统一读取层</t>
+  </si>
+  <si>
+    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A5:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>36</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>37</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>39</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>40</v>
@@ -776,24 +776,24 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">

--- a/src/cab/perm/falcon.lbs.query.xlsx
+++ b/src/cab/perm/falcon.lbs.query.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-lbs/src/main/resources/plugin/lbs/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69618E-3330-F247-8FC9-4751B4A65462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B5ECF-70AD-004E-B6E5-FD1CFACACDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -157,6 +157,9 @@
     <t>77452bde-b3c1-4959-ab41-ef15cedd13f6</t>
   </si>
   <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+  </si>
+  <si>
     <t>ac8d755e-fbea-45f4-a476-8d9eb12a1032</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
   </si>
   <si>
     <t>统一读取层</t>
-  </si>
-  <si>
-    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A5:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>36</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>37</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>39</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>40</v>
@@ -776,24 +776,24 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">
